--- a/2020_docs/02_要件/要件定義書.xlsx
+++ b/2020_docs/02_要件/要件定義書.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masudakento\git\portfolio2023\2020_docs\02_要件\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6239E1BF-F49C-4D51-8A90-E075F0216CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="25395" windowHeight="15945" activeTab="2"/>
+    <workbookView xWindow="2723" yWindow="2813" windowWidth="23130" windowHeight="13650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -2076,7 +2082,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2280,7 +2286,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07853725-0C0D-384B-B1E2-301BCBFD1F36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2357,7 +2363,7 @@
         <xdr:cNvPr id="3" name="角丸四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B28DE5D8-9129-7C44-A9AF-0A5B472D2DA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2435,7 +2441,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7925DF13-7ECA-E94B-ADF0-FDA9D29C7273}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2508,7 +2514,7 @@
         <xdr:cNvPr id="5" name="角丸四角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0441F00-7EBA-7940-9697-03FE46293AE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2585,7 +2591,7 @@
         <xdr:cNvPr id="6" name="角丸四角形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9DB3F32-35AE-574D-BE22-2BEC204C9E78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2663,7 +2669,7 @@
         <xdr:cNvPr id="7" name="角丸四角形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44A14D93-29E9-E341-A7F5-A7EDEF9BDCDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2741,7 +2747,7 @@
         <xdr:cNvPr id="8" name="正方形/長方形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5A313EC-02C4-9843-890E-9D58ED659DC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2814,7 +2820,7 @@
         <xdr:cNvPr id="9" name="フローチャート: 代替処理 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F90256C-B3EC-8C46-AB8B-71374EE9C42A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2899,7 +2905,7 @@
         <xdr:cNvPr id="10" name="正方形/長方形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEE49884-EE79-364B-B84E-214E82F12DD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2972,7 +2978,7 @@
         <xdr:cNvPr id="11" name="正方形/長方形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6D370F-E170-0F49-B262-1990FD57F21F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3045,7 +3051,7 @@
         <xdr:cNvPr id="12" name="角丸四角形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{321D5E29-A347-D646-8917-A001D7DFEA0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3122,7 +3128,7 @@
         <xdr:cNvPr id="13" name="角丸四角形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{475850D7-1866-994D-B1DB-E61AF770320C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3205,7 +3211,7 @@
         <xdr:cNvPr id="14" name="角丸四角形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69B554BC-97D0-DF47-995B-9A16161E18D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3288,7 +3294,7 @@
         <xdr:cNvPr id="15" name="角丸四角形 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B720D813-864E-C64B-BA19-7CC34B2FA1ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3371,7 +3377,7 @@
         <xdr:cNvPr id="16" name="角丸四角形 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7081C81D-9DB6-3E40-A152-78157ABE0CCA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3454,7 +3460,7 @@
         <xdr:cNvPr id="17" name="角丸四角形 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F184FEE3-4029-3C45-90DF-742BB7E47847}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3528,7 +3534,7 @@
         <xdr:cNvPr id="18" name="角丸四角形 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ED265B0-E69E-9F4D-9A85-51AAF70C8E1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3619,7 +3625,7 @@
         <xdr:cNvPr id="19" name="角丸四角形 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E415993E-A95A-4740-87C1-4A56B47EEE17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3710,7 +3716,7 @@
         <xdr:cNvPr id="20" name="角丸四角形 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{575EE62A-36BA-D04A-9E91-184BDF8105FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3801,7 +3807,7 @@
         <xdr:cNvPr id="21" name="角丸四角形 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58207B97-DE2C-DD46-85FF-7FB32BE7031F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3884,7 +3890,7 @@
         <xdr:cNvPr id="22" name="正方形/長方形 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1153FA3C-5A89-4B46-849E-5EFB476EA921}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3965,7 +3971,7 @@
         <xdr:cNvPr id="23" name="正方形/長方形 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{707483C1-B699-D649-88C4-37A126385CEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4049,7 +4055,7 @@
         <xdr:cNvPr id="24" name="角丸四角形 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{964EC87A-74A5-1342-8F15-F05936C2C349}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4123,7 +4129,7 @@
         <xdr:cNvPr id="25" name="角丸四角形 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48A1811A-016D-7B4D-84C4-98222A6EFA84}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4214,7 +4220,7 @@
         <xdr:cNvPr id="26" name="正方形/長方形 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96F6530C-E198-F246-A9A3-83593F8D360B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4290,7 +4296,7 @@
         <xdr:cNvPr id="27" name="角丸四角形 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A7675E6-B363-CA43-BA51-EC26DE9C4D46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4364,7 +4370,7 @@
         <xdr:cNvPr id="28" name="角丸四角形 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B250248-95DD-BA4F-9C02-42F6E4205362}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4455,7 +4461,7 @@
         <xdr:cNvPr id="29" name="正方形/長方形 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44E10C5B-8DBB-CF41-9F75-F3188FFB056D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4544,7 +4550,7 @@
         <xdr:cNvPr id="30" name="正方形/長方形 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16034B9F-81F9-F745-BA50-43E7310A62C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4620,7 +4626,7 @@
         <xdr:cNvPr id="31" name="正方形/長方形 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E3D542-429A-6845-B799-6D8D533298B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4701,7 +4707,7 @@
         <xdr:cNvPr id="32" name="正方形/長方形 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D6C5035-C2F3-534F-A14A-B901348FF5A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4779,7 +4785,7 @@
         <xdr:cNvPr id="33" name="正方形/長方形 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E895B1-6C3C-9142-9038-0E6EF12D31BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4857,7 +4863,7 @@
         <xdr:cNvPr id="34" name="正方形/長方形 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE38FEEF-7FB1-D148-9569-900C776884B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4935,7 +4941,7 @@
         <xdr:cNvPr id="35" name="正方形/長方形 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBC48BDC-6172-7E4D-A50F-98BE8066332D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5013,7 +5019,7 @@
         <xdr:cNvPr id="36" name="正方形/長方形 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{007B7439-B6D7-2D45-8C2F-A2A249CB0037}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5091,7 +5097,7 @@
         <xdr:cNvPr id="37" name="正方形/長方形 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BE17045-1154-C54C-B96D-A4B291D57C7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5169,7 +5175,7 @@
         <xdr:cNvPr id="38" name="正方形/長方形 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D963BCCA-E7FA-9549-911F-5C54FB140775}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5247,7 +5253,7 @@
         <xdr:cNvPr id="39" name="正方形/長方形 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A105F78-BA8C-3F4B-86FD-2F46CC5BF75A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5325,7 +5331,7 @@
         <xdr:cNvPr id="40" name="正方形/長方形 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A909DA29-1E33-DB4F-BE74-B25A6FFCDE93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5403,7 +5409,7 @@
         <xdr:cNvPr id="41" name="正方形/長方形 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6496FE47-FEA9-7248-9401-062E48251CB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5481,7 +5487,7 @@
         <xdr:cNvPr id="42" name="正方形/長方形 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A0191E-E9DC-EF4E-B4D6-69597A66003F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5559,7 +5565,7 @@
         <xdr:cNvPr id="43" name="正方形/長方形 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62CD1CFE-F7BF-BA47-9924-D7886458C096}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5645,7 +5651,7 @@
         <xdr:cNvPr id="44" name="正方形/長方形 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9495C990-0B27-B448-91AA-F740618C8275}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5718,7 +5724,7 @@
         <xdr:cNvPr id="45" name="角丸四角形 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{838C9B61-7B6F-2F48-836A-2DDC2E88336F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5809,7 +5815,7 @@
         <xdr:cNvPr id="46" name="フローチャート : 代替処理 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A90EFD7C-3EFD-C04C-91B9-BA78569CFAC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5894,7 +5900,7 @@
         <xdr:cNvPr id="47" name="フローチャート : 代替処理 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF983B0D-3EB4-4244-981D-C46F91C7CE12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5979,7 +5985,7 @@
         <xdr:cNvPr id="48" name="フローチャート : 代替処理 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C96FD2-CA54-F048-8668-0BBD38EF430B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6064,7 +6070,7 @@
         <xdr:cNvPr id="49" name="フローチャート : 代替処理 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DBD535F-8CD9-E94D-A6BA-2079C26845C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6149,7 +6155,7 @@
         <xdr:cNvPr id="50" name="フローチャート : 代替処理 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{977BA856-37CA-B449-9E49-54C6D0FB8099}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6234,7 +6240,7 @@
         <xdr:cNvPr id="51" name="フローチャート : 代替処理 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07599062-B773-A744-A5A5-32FB6F43726F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6319,7 +6325,7 @@
         <xdr:cNvPr id="52" name="フローチャート : 代替処理 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DFFEB4E-47DC-E942-9962-F5869843A84C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6404,7 +6410,7 @@
         <xdr:cNvPr id="53" name="フローチャート : 代替処理 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{867931D3-A064-654C-B022-DFB49AA14F09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6489,7 +6495,7 @@
         <xdr:cNvPr id="54" name="フローチャート : 代替処理 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE727626-8FB2-B043-B739-1F4545204A52}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6574,7 +6580,7 @@
         <xdr:cNvPr id="55" name="フローチャート : 代替処理 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20704FFD-0898-A944-93E7-0F5972336FF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6662,7 +6668,7 @@
         <xdr:cNvPr id="56" name="フローチャート : 代替処理 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF76856F-BB06-9E41-8B19-9A84949B0DF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6747,7 +6753,7 @@
         <xdr:cNvPr id="57" name="フローチャート : 代替処理 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E422C5CC-D58F-B145-B4FF-6F0A41A218E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6832,7 +6838,7 @@
         <xdr:cNvPr id="58" name="角丸四角形 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28DB0EFC-DD86-AF4A-8B7A-0050694D0003}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6923,7 +6929,7 @@
         <xdr:cNvPr id="59" name="角丸四角形 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12378456-F204-D846-966E-ABF9E5243B41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7014,7 +7020,7 @@
         <xdr:cNvPr id="60" name="正方形/長方形 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA0D46B-7BE4-764A-8060-BA3156E9C985}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7092,7 +7098,7 @@
         <xdr:cNvPr id="61" name="正方形/長方形 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8C76E55-CD97-7841-8F6A-7E125FE25A5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7170,7 +7176,7 @@
         <xdr:cNvPr id="62" name="正方形/長方形 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38FB7853-8DBB-6B49-B367-C96B92C25A26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7248,7 +7254,7 @@
         <xdr:cNvPr id="63" name="正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{391DD884-EE0E-4645-9F4E-DE82A90901AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7326,7 +7332,7 @@
         <xdr:cNvPr id="64" name="正方形/長方形 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D3157ED-FC04-1247-BFAC-8EC1A8B06882}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7404,7 +7410,7 @@
         <xdr:cNvPr id="65" name="正方形/長方形 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA8A9D9-8E7A-0A40-94AB-0364A729DC44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7482,7 +7488,7 @@
         <xdr:cNvPr id="66" name="正方形/長方形 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4257C89C-4CE6-7F4C-B8D1-245370A64F1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7568,7 +7574,7 @@
         <xdr:cNvPr id="67" name="角丸四角形 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5965AACA-03BF-BC4A-BA0E-2F7C050098D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7659,7 +7665,7 @@
         <xdr:cNvPr id="68" name="角丸四角形 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE6C0A2A-23A8-1642-8D12-A9CE0E18123A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7750,7 +7756,7 @@
         <xdr:cNvPr id="69" name="角丸四角形 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09248F28-6FAD-0846-A35C-19AA85713817}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7841,7 +7847,7 @@
         <xdr:cNvPr id="70" name="角丸四角形 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC681391-F306-4A42-8736-913BFA101D69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7932,7 +7938,7 @@
         <xdr:cNvPr id="71" name="角丸四角形 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C033E971-B8E9-5F45-A394-B81411681977}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8023,7 +8029,7 @@
         <xdr:cNvPr id="72" name="角丸四角形 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B30661CC-C211-1E48-811B-FB2C18B01757}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8114,7 +8120,7 @@
         <xdr:cNvPr id="73" name="角丸四角形 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{223A5CB2-20C0-6547-BD4F-5F7393190467}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8205,7 +8211,7 @@
         <xdr:cNvPr id="74" name="角丸四角形 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{377CB872-46A2-8F46-B5D9-2A2DB0B5DDAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8296,7 +8302,7 @@
         <xdr:cNvPr id="75" name="角丸四角形 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17FB5B9C-5B6C-1D45-ABFA-6604B20B888C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8387,7 +8393,7 @@
         <xdr:cNvPr id="76" name="フローチャート: 代替処理 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A89C26-3F0F-5440-8BB9-5D1EB3E7A52A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8472,7 +8478,7 @@
         <xdr:cNvPr id="77" name="フローチャート: 代替処理 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A0AADA6-A754-564B-ADCB-CA3744B2C503}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8557,7 +8563,7 @@
         <xdr:cNvPr id="78" name="フローチャート: 代替処理 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28706DDE-0AFF-D446-8F9F-6C1A56429288}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8642,7 +8648,7 @@
         <xdr:cNvPr id="79" name="角丸四角形 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6848F0C0-5703-B140-9FD8-3B1BE442D252}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8733,7 +8739,7 @@
         <xdr:cNvPr id="80" name="角丸四角形 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED6CF9E-22CE-8D4E-A6DC-822F4ED87C90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8824,7 +8830,7 @@
         <xdr:cNvPr id="81" name="正方形/長方形 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A4A63A5-4C60-BA47-84B8-DC39137A6FC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8902,7 +8908,7 @@
         <xdr:cNvPr id="82" name="正方形/長方形 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B975CEB2-96F2-5A49-8007-CBBA09586CD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8980,7 +8986,7 @@
         <xdr:cNvPr id="83" name="正方形/長方形 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{996AAA9D-2F74-A04C-979E-7FCECEF17CDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9058,7 +9064,7 @@
         <xdr:cNvPr id="84" name="フローチャート: 代替処理 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D834EEA-2829-8D45-AF4D-9A2D2D4E5267}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9143,7 +9149,7 @@
         <xdr:cNvPr id="85" name="フローチャート: 代替処理 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E98F9F5-B3EE-ED4B-BFF8-B7A9748ED762}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9228,7 +9234,7 @@
         <xdr:cNvPr id="86" name="フローチャート: 代替処理 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F09570C-A33A-C741-8E3A-F12AC4E7E9D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000056000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9316,7 +9322,7 @@
         <xdr:cNvPr id="87" name="正方形/長方形 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E01A0A-D940-544D-A3DC-CF22595167F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000057000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9394,7 +9400,7 @@
         <xdr:cNvPr id="88" name="フローチャート: 代替処理 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6492B1E8-FFFA-E640-B465-CBE585F6242B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000058000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9479,7 +9485,7 @@
         <xdr:cNvPr id="89" name="フローチャート: 代替処理 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F13C7F6-66EF-F84F-A753-926BFDEE91B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9564,7 +9570,7 @@
         <xdr:cNvPr id="90" name="正方形/長方形 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5820EADE-1DF3-CC45-805C-A4A2BBF3B08F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9642,7 +9648,7 @@
         <xdr:cNvPr id="91" name="フローチャート: 代替処理 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBDFA4C4-6338-A141-AC4F-E233BAE5AB1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9730,7 +9736,7 @@
         <xdr:cNvPr id="92" name="フローチャート: 代替処理 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15FE668A-D59D-0041-9AFB-DA22368B6DA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9810,7 +9816,7 @@
         <xdr:cNvPr id="93" name="角丸四角形 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B9C1FAA-F1DF-DC4A-9771-D7F13A597A04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9901,7 +9907,7 @@
         <xdr:cNvPr id="94" name="角丸四角形 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7339523D-5D90-384C-827F-B02B23F04017}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9992,7 +9998,7 @@
         <xdr:cNvPr id="95" name="フローチャート : 代替処理 127">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEDCD5D7-2B2F-A447-BE7C-26386C6418D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10077,7 +10083,7 @@
         <xdr:cNvPr id="96" name="フローチャート : 代替処理 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C16FFAF-5978-0446-A329-725E28655F87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10162,7 +10168,7 @@
         <xdr:cNvPr id="97" name="フローチャート : 代替処理 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03CED5D7-9176-A34C-869C-159B58D7EE6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10247,7 +10253,7 @@
         <xdr:cNvPr id="98" name="フローチャート : 代替処理 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00408C5A-90AD-3548-903C-EAD3992BB43B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10332,7 +10338,7 @@
         <xdr:cNvPr id="99" name="フローチャート : 代替処理 131">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2EC2E78-8E65-174A-BDC5-6991710C65FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10417,7 +10423,7 @@
         <xdr:cNvPr id="100" name="フローチャート : 代替処理 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2116892D-EC97-7844-8346-0BB615260B03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10502,7 +10508,7 @@
         <xdr:cNvPr id="101" name="フローチャート : 代替処理 133">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC28C81-7001-A44B-A24B-2739E45EF5FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10587,7 +10593,7 @@
         <xdr:cNvPr id="102" name="フローチャート : 代替処理 134">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0785CFB0-754F-6B44-92DA-FFECCFA99E13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10672,7 +10678,7 @@
         <xdr:cNvPr id="103" name="フローチャート : 代替処理 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F6FEFE7-DBD0-F74A-805E-726AEF060501}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000067000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10757,7 +10763,7 @@
         <xdr:cNvPr id="104" name="フローチャート : 代替処理 136">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A01DBF5-B664-3D48-B885-39466015C306}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10845,7 +10851,7 @@
         <xdr:cNvPr id="105" name="フローチャート : 代替処理 137">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84FF6F56-DE4B-9F4F-BC70-1EE6D6916451}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000069000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10930,7 +10936,7 @@
         <xdr:cNvPr id="106" name="フローチャート : 代替処理 138">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BB443D5-1359-0C46-93F2-E63ADD9BDD96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11015,7 +11021,7 @@
         <xdr:cNvPr id="107" name="角丸四角形 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D811E6B-65BB-0E41-AA53-B9D03E02F2E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11106,7 +11112,7 @@
         <xdr:cNvPr id="108" name="角丸四角形 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73E0B51A-7A3F-004A-8C47-728775A64702}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11197,7 +11203,7 @@
         <xdr:cNvPr id="109" name="角丸四角形 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5301C40E-8959-D24F-A8FE-E8730531B9DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11288,7 +11294,7 @@
         <xdr:cNvPr id="110" name="正方形/長方形 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF3A5D43-4154-A24C-8A2A-235B9B92341A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11371,7 +11377,7 @@
         <xdr:cNvPr id="111" name="正方形/長方形 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A86DE00-4873-884C-A1F2-AE39CB249F88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11454,7 +11460,7 @@
         <xdr:cNvPr id="112" name="正方形/長方形 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C1C3ECB-94B6-1048-9F1D-D0E44304A660}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11532,7 +11538,7 @@
         <xdr:cNvPr id="113" name="角丸四角形 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0643315-1594-5643-AFA7-3127B9079839}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000071000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11609,7 +11615,7 @@
         <xdr:cNvPr id="114" name="角丸四角形 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E19609-74A0-E648-A761-6A285474A1B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000072000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11687,7 +11693,7 @@
         <xdr:cNvPr id="115" name="フローチャート: 処理 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB421881-D956-1D42-864C-1245409B2EF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000073000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11765,7 +11771,7 @@
         <xdr:cNvPr id="116" name="フローチャート: 処理 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E423CFA-6E21-C34D-B8D5-20E521552270}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000074000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11843,7 +11849,7 @@
         <xdr:cNvPr id="117" name="フローチャート: 処理 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57F9E5D2-E881-FE44-9196-1C4AF2DB7E45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11921,7 +11927,7 @@
         <xdr:cNvPr id="118" name="フローチャート: 処理 117">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C5D4096-6539-554D-8532-768E44F12041}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000076000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11999,7 +12005,7 @@
         <xdr:cNvPr id="119" name="フローチャート: 処理 118">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3B0FE61-56A4-1B4A-9F71-55F402F6E437}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000077000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12077,7 +12083,7 @@
         <xdr:cNvPr id="120" name="フローチャート: 処理 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C587C488-FBCF-2F4A-8A60-266741259CB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000078000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12155,7 +12161,7 @@
         <xdr:cNvPr id="121" name="フローチャート: 処理 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8CBC589-69A4-D049-BB7F-F422A9243B1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12233,7 +12239,7 @@
         <xdr:cNvPr id="122" name="フローチャート: 処理 121">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54F8CCC6-CAE8-CB48-9452-8A387749CA41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12311,7 +12317,7 @@
         <xdr:cNvPr id="123" name="フローチャート: 処理 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5495041-FFD1-9F4F-B1F5-F3467CE9E28B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12389,7 +12395,7 @@
         <xdr:cNvPr id="124" name="フローチャート: 処理 123">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2AEFE29-37AB-0D43-9FF8-11E60D4B680D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12467,7 +12473,7 @@
         <xdr:cNvPr id="125" name="フローチャート: 処理 124">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{869BEFDC-122E-F84C-9FF5-0D972481C06E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12545,7 +12551,7 @@
         <xdr:cNvPr id="126" name="フローチャート: 処理 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{173A05D5-504D-5A4B-A729-9EF1AB26E7D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12631,7 +12637,7 @@
         <xdr:cNvPr id="127" name="フローチャート: 処理 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAFB8D35-CB35-7441-9383-20F08E4B3B11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12706,7 +12712,7 @@
         <xdr:cNvPr id="128" name="フローチャート: 処理 127">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCAEC1EF-245D-9744-8EA3-5CEB6ED7F622}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000080000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12789,7 +12795,7 @@
         <xdr:cNvPr id="129" name="フローチャート: 処理 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9979D31-5AAF-AF47-9D40-4403AF926C37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000081000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12872,7 +12878,7 @@
         <xdr:cNvPr id="130" name="フローチャート: 処理 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48B08860-E1A3-D148-8B90-03B2CF10F56A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000082000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12955,7 +12961,7 @@
         <xdr:cNvPr id="131" name="フローチャート: 処理 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1E1E7CA-7977-DB42-9049-7E43466943A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000083000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13038,7 +13044,7 @@
         <xdr:cNvPr id="132" name="フローチャート: 処理 131">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD8AA492-3148-D347-8005-DCCFB1C737C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000084000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13121,7 +13127,7 @@
         <xdr:cNvPr id="133" name="フローチャート: 処理 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D6F1B6E-8C0E-E442-929F-75A8F1C96A73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000085000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13204,7 +13210,7 @@
         <xdr:cNvPr id="134" name="フローチャート: 処理 133">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43504D58-AEA9-3B47-9F12-8FF4BE8CFFF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000086000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13287,7 +13293,7 @@
         <xdr:cNvPr id="135" name="フローチャート: 処理 134">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D1A3E9-A58B-CD43-B0AB-F92BD1AAC7BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000087000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13370,7 +13376,7 @@
         <xdr:cNvPr id="136" name="フローチャート: 処理 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20EC631A-B979-1B48-8A6F-04F1F7F0C15A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000088000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13453,7 +13459,7 @@
         <xdr:cNvPr id="137" name="フローチャート: 処理 136">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B33372EE-3C92-6249-9B2F-293EB69E4F96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000089000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13539,7 +13545,7 @@
         <xdr:cNvPr id="138" name="フローチャート: 処理 137">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F87DF453-D9F5-E34C-A86B-8D21B1E3A40F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13622,7 +13628,7 @@
         <xdr:cNvPr id="139" name="フローチャート: 処理 138">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C0071E8-036C-7841-89B1-593AE38C1266}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13705,7 +13711,7 @@
         <xdr:cNvPr id="140" name="フローチャート: 処理 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A82AF05-E1EE-3A4D-AC07-E6595062BB99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13788,7 +13794,7 @@
         <xdr:cNvPr id="141" name="フローチャート: 処理 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C637B4-801E-324B-828B-3B5322AE4D83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13871,7 +13877,7 @@
         <xdr:cNvPr id="142" name="フローチャート: 処理 141">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9958F491-023A-5744-8239-DC26A4B0DDAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13954,7 +13960,7 @@
         <xdr:cNvPr id="143" name="フローチャート: 処理 142">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B13BE01B-6930-C048-963A-2392B5BF83ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14037,7 +14043,7 @@
         <xdr:cNvPr id="144" name="フローチャート: 処理 143">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B78F525-ECBA-774C-ADE0-DBFD1C19BEC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000090000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14120,7 +14126,7 @@
         <xdr:cNvPr id="145" name="フローチャート: 処理 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D43DBB40-CE83-7A4A-BDB3-83DFBA1FAF29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14203,7 +14209,7 @@
         <xdr:cNvPr id="146" name="フローチャート: 処理 145">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECEC5204-FADA-8D42-AA01-F1A5B1EC0505}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000092000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14286,7 +14292,7 @@
         <xdr:cNvPr id="147" name="フローチャート: 処理 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD83260-1803-6D42-89FC-3F87A1925279}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000093000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14369,7 +14375,7 @@
         <xdr:cNvPr id="148" name="フローチャート: 処理 147">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE95B81D-D96D-D74A-9E64-D046F00EC196}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000094000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14452,7 +14458,7 @@
         <xdr:cNvPr id="149" name="フローチャート: 処理 148">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF26E255-C5B4-6540-9D51-885019BC230E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14538,7 +14544,7 @@
         <xdr:cNvPr id="150" name="フローチャート: 処理 149">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7F905B4-DCB1-A946-839E-730A205E2AF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000096000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14621,7 +14627,7 @@
         <xdr:cNvPr id="151" name="フローチャート: 処理 150">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DF9754D-6D4A-B74F-B4F1-F3A1BF69F642}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000097000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14704,7 +14710,7 @@
         <xdr:cNvPr id="152" name="角丸四角形 151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{749E3A18-36A4-C740-968C-9F2A2CA94B7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14795,7 +14801,7 @@
         <xdr:cNvPr id="153" name="角丸四角形 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4889E22B-CAC9-E84C-B31B-F259693E7849}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000099000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14886,7 +14892,7 @@
         <xdr:cNvPr id="154" name="フローチャート: 処理 153">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3D7ED62-FD84-AC47-BE1A-F0E5D773FDE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14969,7 +14975,7 @@
         <xdr:cNvPr id="155" name="フローチャート: 処理 154">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EA6578F-C93D-294E-8374-190B050C4B6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15052,7 +15058,7 @@
         <xdr:cNvPr id="156" name="フローチャート: 処理 155">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29406785-9E64-324F-B91C-917A167494C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15130,7 +15136,7 @@
         <xdr:cNvPr id="157" name="角丸四角形 156">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85CB20FB-CEA8-6C4C-BE61-DAA43B0E5DD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15221,7 +15227,7 @@
         <xdr:cNvPr id="158" name="角丸四角形 157">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B62DBA7-C3E7-734A-8656-5C3EEC25C73E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15298,7 +15304,7 @@
         <xdr:cNvPr id="159" name="角丸四角形 158">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{464C4026-70B0-ED42-8BC1-19D1B8BD2E7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15389,7 +15395,7 @@
         <xdr:cNvPr id="160" name="正方形/長方形 159">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0BFE3AE-CD3C-924F-A509-2CA9C4B2D97B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15494,7 +15500,7 @@
         <xdr:cNvPr id="161" name="角丸四角形 160">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5970F3B3-0F79-7C4D-B6AF-3D2ADF6A593B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15572,7 +15578,7 @@
         <xdr:cNvPr id="162" name="正方形/長方形 161">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD3C52F-4392-EB4C-A821-CCF9415E8CB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15650,7 +15656,7 @@
         <xdr:cNvPr id="163" name="フローチャート: 代替処理 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC39D71-5399-6449-9565-896DCB1FFF60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15735,7 +15741,7 @@
         <xdr:cNvPr id="164" name="角丸四角形 163">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA1360A3-8249-9F4B-AC61-50404C03471B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15813,7 +15819,7 @@
         <xdr:cNvPr id="165" name="フローチャート: 代替処理 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FF0C29D-7F81-904D-A278-981009D920D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15898,7 +15904,7 @@
         <xdr:cNvPr id="166" name="正方形/長方形 165">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0F791A-551F-D641-8346-80FBAF2A3642}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15976,7 +15982,7 @@
         <xdr:cNvPr id="167" name="正方形/長方形 166">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B6C42D9-9E5A-8A46-9EA1-36EC3184B8B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16049,7 +16055,7 @@
         <xdr:cNvPr id="168" name="角丸四角形 167">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDF973C9-8AF9-9746-B56B-A034C58D3AFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16140,7 +16146,7 @@
         <xdr:cNvPr id="169" name="角丸四角形 168">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB45CF80-BBA2-F646-BD86-22ED151A9364}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16231,7 +16237,7 @@
         <xdr:cNvPr id="170" name="角丸四角形 169">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52FD01A7-FA01-C94E-AB95-97342652F232}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16322,7 +16328,7 @@
         <xdr:cNvPr id="171" name="角丸四角形 170">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C584FF93-4FE3-B143-AAA4-9999E3311971}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16413,7 +16419,7 @@
         <xdr:cNvPr id="172" name="角丸四角形 171">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B3FD12-0C57-EC47-A8E2-F31E0823F8D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16504,7 +16510,7 @@
         <xdr:cNvPr id="173" name="角丸四角形 172">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29A7BC70-EB89-234C-8B51-27A12B63C8A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16595,7 +16601,7 @@
         <xdr:cNvPr id="174" name="角丸四角形 173">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A7F13D-F482-F146-BE41-FF123036A1EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16686,7 +16692,7 @@
         <xdr:cNvPr id="175" name="正方形/長方形 174">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CC2F5E2-40D4-B240-859A-9363DA117821}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16772,7 +16778,7 @@
         <xdr:cNvPr id="176" name="角丸四角形 175">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B073CCCE-7DB1-4E4D-AC1D-ADC04EC78E8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16849,7 +16855,7 @@
         <xdr:cNvPr id="177" name="角丸四角形 176">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE9D5C20-DF1C-A547-B8BE-7295E3813FE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16927,7 +16933,7 @@
         <xdr:cNvPr id="178" name="正方形/長方形 177">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EDE0BAA-665A-AE44-A3A6-7DD23ECEA638}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17000,7 +17006,7 @@
         <xdr:cNvPr id="179" name="正方形/長方形 178">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D49DC2-8617-2F43-8E3D-8794A8C172E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17073,7 +17079,7 @@
         <xdr:cNvPr id="180" name="角丸四角形 179">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F214A2AE-1257-884C-A460-727F89F3193F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17164,7 +17170,7 @@
         <xdr:cNvPr id="181" name="正方形/長方形 180">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75075216-A373-AD46-B730-0A98392DA3D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17242,7 +17248,7 @@
         <xdr:cNvPr id="182" name="正方形/長方形 181">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57C89BD0-2F71-8A4C-899B-A1F301F11C50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17320,7 +17326,7 @@
         <xdr:cNvPr id="183" name="角丸四角形 182">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A301A8C9-780A-D04D-B3C1-42D5E47A12AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17411,7 +17417,7 @@
         <xdr:cNvPr id="184" name="角丸四角形 183">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93DF5F38-6463-B648-9472-62F8197DF09E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17502,7 +17508,7 @@
         <xdr:cNvPr id="185" name="角丸四角形 184">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEF0E036-C6DF-6B47-8D43-D5C2561F7951}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17593,7 +17599,7 @@
         <xdr:cNvPr id="186" name="角丸四角形 185">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F20A4456-9421-164E-AA78-C3ABF1098A9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17684,7 +17690,7 @@
         <xdr:cNvPr id="187" name="角丸四角形 186">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2763E44-BB95-094B-B739-26ED79C2F951}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17775,7 +17781,7 @@
         <xdr:cNvPr id="188" name="角丸四角形 187">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{460B0193-B749-EC4D-B09E-0B924AAB18DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17866,7 +17872,7 @@
         <xdr:cNvPr id="189" name="角丸四角形 188">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3726D976-B846-4E46-A5CA-D7D3F26A1988}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17957,7 +17963,7 @@
         <xdr:cNvPr id="190" name="正方形/長方形 189">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93AAC5A7-934B-4442-BAED-712BECB814A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18030,7 +18036,7 @@
         <xdr:cNvPr id="191" name="正方形/長方形 190">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96948577-0FFE-0A4C-913E-4A1ADF65F1E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18108,7 +18114,7 @@
         <xdr:cNvPr id="192" name="フローチャート: 代替処理 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDC7C0B1-88BB-D44B-8ADC-83FB8E0A6537}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18193,7 +18199,7 @@
         <xdr:cNvPr id="193" name="フローチャート: 代替処理 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0CDA192-38F4-204E-8E25-98215AAB899C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18278,7 +18284,7 @@
         <xdr:cNvPr id="194" name="正方形/長方形 193">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{408328D5-7D61-2346-8996-EB174FE804A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18356,7 +18362,7 @@
         <xdr:cNvPr id="195" name="正方形/長方形 194">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{394CF310-3D7C-6046-8F99-34E333CA6399}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18429,7 +18435,7 @@
         <xdr:cNvPr id="196" name="角丸四角形 195">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9746CFF4-B966-1F4A-BCC1-6128701F0183}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18520,7 +18526,7 @@
         <xdr:cNvPr id="197" name="角丸四角形 196">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FCA6C87-0E89-3E47-B51A-B7F4D8C9E88D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18611,7 +18617,7 @@
         <xdr:cNvPr id="198" name="角丸四角形 197">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7FCE007-969F-8746-8798-FC9F3BD659D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18702,7 +18708,7 @@
         <xdr:cNvPr id="199" name="角丸四角形 198">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9EB5322-C6CA-BF43-9BED-87D2CC573297}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18793,7 +18799,7 @@
         <xdr:cNvPr id="200" name="角丸四角形 199">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB58C4CB-600C-2A4E-937E-F98B12120DEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18884,7 +18890,7 @@
         <xdr:cNvPr id="201" name="角丸四角形 200">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7042922F-ABA8-3842-9198-846F48011D8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18975,7 +18981,7 @@
         <xdr:cNvPr id="202" name="正方形/長方形 201">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55261832-A026-E44B-97C8-DBE112267F3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19061,7 +19067,7 @@
         <xdr:cNvPr id="203" name="角丸四角形 202">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{279EF85D-9980-214C-A17F-A3E54B59B8F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19139,7 +19145,7 @@
         <xdr:cNvPr id="204" name="正方形/長方形 203">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54CFA3DE-D926-E24B-B80D-6D722356C145}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19217,7 +19223,7 @@
         <xdr:cNvPr id="205" name="正方形/長方形 204">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D8393B7-2DB7-7F4A-916A-2FCDB8E5F8DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19290,7 +19296,7 @@
         <xdr:cNvPr id="206" name="角丸四角形 205">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E98EBC64-7D5E-8349-B0F9-508A31203930}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19381,7 +19387,7 @@
         <xdr:cNvPr id="207" name="角丸四角形 206">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59FB055A-6A80-2F44-92E0-225D206F6D2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19472,7 +19478,7 @@
         <xdr:cNvPr id="208" name="角丸四角形 207">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2704230A-CAE6-CB45-9D5D-0587A08D5E3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19563,7 +19569,7 @@
         <xdr:cNvPr id="209" name="角丸四角形 208">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E28519E4-F922-8B48-9B87-1F26CA01059F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19654,7 +19660,7 @@
         <xdr:cNvPr id="210" name="角丸四角形 209">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B705FD79-7AC5-1C46-AFAE-3E1B5C896382}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19745,7 +19751,7 @@
         <xdr:cNvPr id="211" name="角丸四角形 210">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D339AD1-94BA-E940-B860-242E56D2CBB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19828,7 +19834,7 @@
         <xdr:cNvPr id="212" name="角丸四角形 211">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A5A6392-46D7-9146-850A-3019075558C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19906,7 +19912,7 @@
         <xdr:cNvPr id="213" name="角丸四角形 212">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02CADBE6-0B34-D74A-BBAF-17C22A708828}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19981,7 +19987,7 @@
         <xdr:cNvPr id="214" name="角丸四角形 213">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21FC4530-A9CF-2F44-8796-96D22A61C3F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20056,7 +20062,7 @@
         <xdr:cNvPr id="215" name="角丸四角形 214">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D85CA26-EC8B-B042-B336-34A0F05CEDB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20131,7 +20137,7 @@
         <xdr:cNvPr id="216" name="角丸四角形 215">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D44BECD8-A179-7341-81F6-1C440582E4D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20206,7 +20212,7 @@
         <xdr:cNvPr id="217" name="フローチャート: 処理 216">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ABEE7A9-C750-9A48-89F5-D6808C6A7B19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20284,7 +20290,7 @@
         <xdr:cNvPr id="218" name="フローチャート: 処理 217">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFB90D39-2B47-DB4B-BA3E-F82454E30ABB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20362,7 +20368,7 @@
         <xdr:cNvPr id="219" name="フローチャート: 処理 218">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C172B9FA-E3D8-B74D-B555-49ED679C99EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20440,7 +20446,7 @@
         <xdr:cNvPr id="220" name="フローチャート: 処理 219">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D6801FA-917B-EA41-9694-95E9E72460B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20523,7 +20529,7 @@
         <xdr:cNvPr id="221" name="フローチャート: 処理 220">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03DF0FCF-5FBD-F948-9A7D-7B913C5A51ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20606,7 +20612,7 @@
         <xdr:cNvPr id="222" name="フローチャート: 処理 221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12C03F34-9207-1942-B5D6-AB4B5E38A16B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20689,7 +20695,7 @@
         <xdr:cNvPr id="223" name="フローチャート: 処理 222">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE879EA-F3F8-594F-8177-03ABD2AE6671}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20772,7 +20778,7 @@
         <xdr:cNvPr id="224" name="フローチャート: 処理 223">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6637AF1-9773-5447-9DAA-49770E4DD2E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20855,7 +20861,7 @@
         <xdr:cNvPr id="225" name="フローチャート: 処理 224">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF92A389-BA0A-F147-8BE9-75BC4DE0B414}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20938,7 +20944,7 @@
         <xdr:cNvPr id="226" name="フローチャート: 処理 225">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3109E543-A272-714B-92CD-F982FC81CDAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21021,7 +21027,7 @@
         <xdr:cNvPr id="227" name="フローチャート: 処理 226">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9978CA53-0407-314B-9806-520B8A9D8412}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21104,7 +21110,7 @@
         <xdr:cNvPr id="228" name="フローチャート: 処理 227">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B3D794-C78E-D74C-9840-31EAFDD468A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21182,7 +21188,7 @@
         <xdr:cNvPr id="229" name="フローチャート: 処理 228">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6C514D2-3316-5B49-A7BF-53BC93472C1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21260,7 +21266,7 @@
         <xdr:cNvPr id="230" name="フローチャート: 処理 229">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9D4A6A0-AABF-5A4F-84DF-6D1FC20715ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21343,7 +21349,7 @@
         <xdr:cNvPr id="231" name="フローチャート: 処理 230">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{466738FF-C973-4144-B1D3-8E4261FF0739}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21421,7 +21427,7 @@
         <xdr:cNvPr id="232" name="フローチャート: 処理 231">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{929F0E9C-AD74-FA40-B305-8EC795200C00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21504,7 +21510,7 @@
         <xdr:cNvPr id="233" name="フローチャート: 処理 232">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8514431-D0F9-4943-83F5-7F5A8441B7FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21582,7 +21588,7 @@
         <xdr:cNvPr id="234" name="フローチャート: 処理 233">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E505AD8-6027-F245-B116-00E5C1B51D4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000EA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21660,7 +21666,7 @@
         <xdr:cNvPr id="235" name="フローチャート: 処理 234">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D1DF48A-22DC-374F-A0B2-9F33E2858214}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000EB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21743,7 +21749,7 @@
         <xdr:cNvPr id="236" name="フローチャート: 処理 235">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{883510E2-86FC-954F-B436-9D5E07A7A4DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000EC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21826,7 +21832,7 @@
         <xdr:cNvPr id="237" name="フローチャート: 処理 236">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A0A0673-508F-9B42-9F92-33013D760F29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000ED000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21904,7 +21910,7 @@
         <xdr:cNvPr id="238" name="フローチャート: 処理 237">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{802CF104-5041-DB42-9D35-6A6CA370E5E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000EE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21982,7 +21988,7 @@
         <xdr:cNvPr id="239" name="フローチャート: 処理 238">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02024287-C5CA-B34C-A6B6-1E20C46E4E82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000EF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22060,7 +22066,7 @@
         <xdr:cNvPr id="240" name="フローチャート: 処理 239">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B15B53BC-A300-9543-9601-E3A4742237A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22138,7 +22144,7 @@
         <xdr:cNvPr id="241" name="フローチャート: 処理 240">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAEDDD3E-E56E-1840-92BE-9E08FAD8D1BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22216,7 +22222,7 @@
         <xdr:cNvPr id="242" name="フローチャート: 処理 241">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BB43A5A-1653-1642-B453-21510249BB75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22294,7 +22300,7 @@
         <xdr:cNvPr id="243" name="フローチャート: 処理 242">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABE4BD09-BA73-3342-9A6B-B959FDB35B46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22372,7 +22378,7 @@
         <xdr:cNvPr id="244" name="フローチャート: 処理 243">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A7D4313-46D0-5E45-97BB-F4B551128808}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22450,7 +22456,7 @@
         <xdr:cNvPr id="245" name="フローチャート: 処理 244">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F46B8B-CD47-DF4C-B61E-77B83E2CFAC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22528,7 +22534,7 @@
         <xdr:cNvPr id="246" name="正方形/長方形 245">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7D28C88-0FA2-AA4F-83D6-F89D8906C14B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22601,7 +22607,7 @@
         <xdr:cNvPr id="247" name="正方形/長方形 246">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D237F07-66FB-B74D-AABA-FFBD78E659CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22674,7 +22680,7 @@
         <xdr:cNvPr id="248" name="フローチャート: 処理 247">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9322C08-A149-3A47-A5A3-B4A4E2C51A6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22757,7 +22763,7 @@
         <xdr:cNvPr id="249" name="フローチャート: 処理 248">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A845B59E-1266-7E47-9837-202EBF138AED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22840,7 +22846,7 @@
         <xdr:cNvPr id="250" name="フローチャート: 処理 249">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D70AF7B5-32A9-2042-9042-D3AA22571B43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000FA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22923,7 +22929,7 @@
         <xdr:cNvPr id="251" name="フローチャート: 処理 250">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24E2E9A7-4C5E-EF46-88A3-5C957B17A903}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000FB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23006,7 +23012,7 @@
         <xdr:cNvPr id="252" name="フローチャート: 処理 251">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A76CD724-9727-3441-BD1C-7A34CB751036}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000FC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23089,7 +23095,7 @@
         <xdr:cNvPr id="253" name="フローチャート: 処理 252">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A3E378B-8913-ED43-A995-138D522FD7C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000FD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23172,7 +23178,7 @@
         <xdr:cNvPr id="254" name="フローチャート: 処理 253">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2052AC87-02FF-1F4C-83C7-3C8015DF38D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000FE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23255,7 +23261,7 @@
         <xdr:cNvPr id="255" name="フローチャート: 処理 254">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0ADC9E-F5F3-E446-BE2B-529F395B3A90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000FF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23338,7 +23344,7 @@
         <xdr:cNvPr id="256" name="フローチャート: 処理 255">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C271E49-1823-8D46-92B3-20B78AAC6B3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000000010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23421,7 +23427,7 @@
         <xdr:cNvPr id="257" name="フローチャート: 処理 256">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CCA2013-A0B3-4E4F-8E89-1414361D48A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23504,7 +23510,7 @@
         <xdr:cNvPr id="258" name="正方形/長方形 257">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E2BA901-3609-6841-B1AA-E0EFFB61215A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23577,7 +23583,7 @@
         <xdr:cNvPr id="259" name="正方形/長方形 258">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{141633B2-2EF1-E54B-BEF6-0D0F0A505C3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23650,7 +23656,7 @@
         <xdr:cNvPr id="260" name="フローチャート: 処理 259">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB1F5810-DC41-F445-8331-FC181C51E091}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23733,7 +23739,7 @@
         <xdr:cNvPr id="261" name="フローチャート: 処理 260">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40DC1269-1932-C44A-89B8-5C13EB52DF3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23816,7 +23822,7 @@
         <xdr:cNvPr id="262" name="フローチャート: 処理 261">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E4A31DA-D82E-CA4B-98B3-B2D6877FBCF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23889,7 +23895,7 @@
         <xdr:cNvPr id="263" name="角丸四角形 262">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA54757E-81A3-8249-916D-6B63E25EE19C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23967,7 +23973,7 @@
         <xdr:cNvPr id="264" name="角丸四角形 263">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CF56455-2059-B94E-A94F-9BE20644786E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24044,7 +24050,7 @@
         <xdr:cNvPr id="265" name="角丸四角形 264">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C04AE8A7-41F9-C440-8F65-A772B740E4C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24127,7 +24133,7 @@
         <xdr:cNvPr id="266" name="角丸四角形 265">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39D41F0-F9CF-A04B-BAE6-BD7589D30885}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24210,7 +24216,7 @@
         <xdr:cNvPr id="267" name="角丸四角形 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98649424-E828-294E-BBD6-6A3E43380550}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24293,7 +24299,7 @@
         <xdr:cNvPr id="268" name="角丸四角形 267">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BE30ADF-12F9-5D44-A5CC-1509D3C8397B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24376,7 +24382,7 @@
         <xdr:cNvPr id="269" name="角丸四角形 268">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59E9B0D3-1922-734F-A781-2A86E7D905B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24453,7 +24459,7 @@
         <xdr:cNvPr id="270" name="角丸四角形 269">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C86289E8-CEEB-484E-A89A-AAD53B955BF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24531,7 +24537,7 @@
         <xdr:cNvPr id="271" name="角丸四角形 270">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E86D2084-2D09-7B43-AE4F-62E36D9C1D3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24609,7 +24615,7 @@
         <xdr:cNvPr id="272" name="角丸四角形 271">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70818BCA-7F65-A249-8B35-A8ED0C678358}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24687,7 +24693,7 @@
         <xdr:cNvPr id="273" name="角丸四角形 272">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55A3D51E-1D3E-BF47-9AEF-8D5CE1A1E6E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24778,7 +24784,7 @@
         <xdr:cNvPr id="274" name="角丸四角形 273">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97ED6A42-6002-2F40-A987-501E8D001F67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24869,7 +24875,7 @@
         <xdr:cNvPr id="275" name="角丸四角形 274">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6319A11A-5E5F-1342-8588-1B00B4664F44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24960,7 +24966,7 @@
         <xdr:cNvPr id="276" name="角丸四角形 275">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B62DBA7-C3E7-734A-8656-5C3EEC25C73E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25037,7 +25043,7 @@
         <xdr:cNvPr id="277" name="正方形/長方形 276">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B975CEB2-96F2-5A49-8007-CBBA09586CD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25115,7 +25121,7 @@
         <xdr:cNvPr id="278" name="フローチャート: 代替処理 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E98F9F5-B3EE-ED4B-BFF8-B7A9748ED762}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25200,7 +25206,7 @@
         <xdr:cNvPr id="279" name="角丸四角形 278">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{464C4026-70B0-ED42-8BC1-19D1B8BD2E7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25291,7 +25297,7 @@
         <xdr:cNvPr id="280" name="角丸四角形 279">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E19609-74A0-E648-A761-6A285474A1B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25369,7 +25375,7 @@
         <xdr:cNvPr id="281" name="フローチャート: 処理 280">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8CBC589-69A4-D049-BB7F-F422A9243B1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25447,7 +25453,7 @@
         <xdr:cNvPr id="282" name="フローチャート: 処理 281">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2AEFE29-37AB-0D43-9FF8-11E60D4B680D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25525,7 +25531,7 @@
         <xdr:cNvPr id="283" name="フローチャート: 処理 282">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43504D58-AEA9-3B47-9F12-8FF4BE8CFFF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25608,7 +25614,7 @@
         <xdr:cNvPr id="284" name="フローチャート: 処理 283">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B33372EE-3C92-6249-9B2F-293EB69E4F96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25694,7 +25700,7 @@
         <xdr:cNvPr id="285" name="フローチャート: 処理 284">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAFB8D35-CB35-7441-9383-20F08E4B3B11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25769,7 +25775,7 @@
         <xdr:cNvPr id="286" name="フローチャート: 処理 285">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3D7ED62-FD84-AC47-BE1A-F0E5D773FDE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25852,7 +25858,7 @@
         <xdr:cNvPr id="287" name="フローチャート: 処理 286">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EA6578F-C93D-294E-8374-190B050C4B6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25935,7 +25941,7 @@
         <xdr:cNvPr id="288" name="角丸四角形 287">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B9C1FAA-F1DF-DC4A-9771-D7F13A597A04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26026,7 +26032,7 @@
         <xdr:cNvPr id="289" name="角丸四角形 288">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4889E22B-CAC9-E84C-B31B-F259693E7849}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26122,7 +26128,7 @@
         <xdr:cNvPr id="2" name="フローチャート: 表示 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CD65B25-C471-CD4F-B62E-28E2550402BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26198,7 +26204,7 @@
         <xdr:cNvPr id="3" name="フローチャート: 表示 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21934635-3EDD-2344-9233-9B6976EEF9B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26274,7 +26280,7 @@
         <xdr:cNvPr id="4" name="フローチャート: 表示 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{893FBA44-66E1-284B-A2A8-BD9C57D8962B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26350,7 +26356,7 @@
         <xdr:cNvPr id="5" name="フローチャート: 表示 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7222068B-602E-E04E-A7CF-4010179CE52D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26426,7 +26432,7 @@
         <xdr:cNvPr id="6" name="フローチャート: 表示 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6976CB15-DAEA-1644-85DF-C966338D601D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26502,7 +26508,7 @@
         <xdr:cNvPr id="7" name="フローチャート: 表示 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3498BEA-1D57-2248-AE17-B8BB8A5212A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26578,7 +26584,7 @@
         <xdr:cNvPr id="8" name="フローチャート: 表示 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{663E1A04-CE4D-764B-AC67-ED14BED6869D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26654,7 +26660,7 @@
         <xdr:cNvPr id="9" name="フローチャート: 表示 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A1509BD-EAC5-A741-8C91-DBFF27C2B593}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26730,7 +26736,7 @@
         <xdr:cNvPr id="10" name="フローチャート: 表示 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{761392CE-B01F-244C-8625-91F3BF12752F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26806,7 +26812,7 @@
         <xdr:cNvPr id="11" name="曲線コネクタ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FB67C97-DA48-8947-9E84-6E556BF1194F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26864,7 +26870,7 @@
         <xdr:cNvPr id="12" name="曲線コネクタ 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D12C5DD-7EB5-4F4A-83A9-B566B7789ED4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26922,7 +26928,7 @@
         <xdr:cNvPr id="13" name="曲線コネクタ 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4B635DA-BC2A-B04D-B7D8-0D72CE699504}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26980,7 +26986,7 @@
         <xdr:cNvPr id="14" name="曲線コネクタ 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{943E8E17-3AFF-A147-9F4D-111DAA3983C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27038,7 +27044,7 @@
         <xdr:cNvPr id="15" name="曲線コネクタ 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E25EFDE8-6373-B54A-83ED-4065461471BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27096,7 +27102,7 @@
         <xdr:cNvPr id="16" name="曲線コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D99ED115-B455-3F4A-950C-F3912EDD1EBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27154,7 +27160,7 @@
         <xdr:cNvPr id="17" name="曲線コネクタ 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{862DDF76-D414-4640-B198-85F896882266}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27212,7 +27218,7 @@
         <xdr:cNvPr id="18" name="曲線コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE25CB8-DFBB-8444-B00C-66F961BACB24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27270,7 +27276,7 @@
         <xdr:cNvPr id="19" name="曲線コネクタ 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2525F84E-F898-E645-A026-B6285EA3DE73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27328,7 +27334,7 @@
         <xdr:cNvPr id="20" name="フローチャート: 表示 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C08231-9601-BA48-B48F-40861E547EEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27404,7 +27410,7 @@
         <xdr:cNvPr id="21" name="曲線コネクタ 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B202B44-8C38-0042-8D2F-D7B0E4D4717D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27736,19 +27742,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:H1048576"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
   <cols>
@@ -27945,12 +27949,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
   <cols>
@@ -28273,7 +28275,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B30" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"新規,更新,削除"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28282,11 +28284,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CR342"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C128" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AT157" sqref="AT157"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="19.899999999999999" outlineLevelCol="1" x14ac:dyDescent="0.8"/>
@@ -31506,7 +31508,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B342">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B342" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"新規,更新,削除"</formula1>
     </dataValidation>
   </dataValidations>
@@ -31517,12 +31519,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="94" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="94" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
   <cols>
@@ -31884,7 +31884,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B40" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"新規,更新,削除"</formula1>
     </dataValidation>
   </dataValidations>
@@ -31894,12 +31894,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
   <cols>
